--- a/src/main/webapp/template/월관리청소양식.xlsx
+++ b/src/main/webapp/template/월관리청소양식.xlsx
@@ -8,9 +8,12 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="월관리청소양식" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="코드참조표" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="월관리입금양식" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="건물정보" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName function="false" hidden="false" localSheetId="1" name="ExternalData_2" vbProcedure="false">건물정보!$A$1:$M$4</definedName>
+  </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -21,15 +24,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="32">
   <si>
     <t xml:space="preserve">월</t>
   </si>
   <si>
-    <t xml:space="preserve">지역코드</t>
-  </si>
-  <si>
-    <t xml:space="preserve">구분</t>
+    <t xml:space="preserve">건물명</t>
   </si>
   <si>
     <t xml:space="preserve">건물코드</t>
@@ -41,7 +41,7 @@
     <t xml:space="preserve">추가금</t>
   </si>
   <si>
-    <t xml:space="preserve">관리비입금</t>
+    <t xml:space="preserve">추가입금</t>
   </si>
   <si>
     <t xml:space="preserve">입금날짜</t>
@@ -50,76 +50,76 @@
     <t xml:space="preserve">입금자명</t>
   </si>
   <si>
-    <t xml:space="preserve">전화번호</t>
-  </si>
-  <si>
     <t xml:space="preserve">비고</t>
   </si>
   <si>
+    <t xml:space="preserve">고객명</t>
+  </si>
+  <si>
+    <t xml:space="preserve">관리비</t>
+  </si>
+  <si>
+    <t xml:space="preserve">부가세</t>
+  </si>
+  <si>
+    <t xml:space="preserve">미수금</t>
+  </si>
+  <si>
+    <t xml:space="preserve">이월금</t>
+  </si>
+  <si>
+    <t xml:space="preserve">입금자일치여부</t>
+  </si>
+  <si>
+    <t xml:space="preserve">금액일치여부</t>
+  </si>
+  <si>
     <t xml:space="preserve">2021-07</t>
   </si>
   <si>
-    <t xml:space="preserve">11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">구역A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B0000100001</t>
+    <t xml:space="preserve">신화테크노밸리</t>
   </si>
   <si>
     <t xml:space="preserve">2021.07.01</t>
   </si>
   <si>
-    <t xml:space="preserve">홍길동</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01012341234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B0000100002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">지역명</t>
-  </si>
-  <si>
-    <t xml:space="preserve">서울특별시</t>
-  </si>
-  <si>
-    <t xml:space="preserve">부산광역시</t>
-  </si>
-  <si>
-    <t xml:space="preserve">대구광역시</t>
-  </si>
-  <si>
-    <t xml:space="preserve">인천광역시</t>
-  </si>
-  <si>
-    <t xml:space="preserve">대전광역시</t>
-  </si>
-  <si>
-    <t xml:space="preserve">경기도</t>
-  </si>
-  <si>
-    <t xml:space="preserve">충청북도</t>
-  </si>
-  <si>
-    <t xml:space="preserve">충청남도</t>
-  </si>
-  <si>
-    <t xml:space="preserve">전라북도</t>
-  </si>
-  <si>
-    <t xml:space="preserve">전라남도</t>
-  </si>
-  <si>
-    <t xml:space="preserve">경상북도</t>
-  </si>
-  <si>
-    <t xml:space="preserve">경상남도</t>
-  </si>
-  <si>
-    <t xml:space="preserve">제주특별자치도</t>
+    <t xml:space="preserve">감자</t>
+  </si>
+  <si>
+    <t xml:space="preserve">당근</t>
+  </si>
+  <si>
+    <t xml:space="preserve">고구마</t>
+  </si>
+  <si>
+    <t xml:space="preserve">기타건물</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mon_mt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">surtax_yn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">memo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B0000000NaN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">이명진</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B0000000002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B0000000001</t>
   </si>
 </sst>
 </file>
@@ -154,6 +154,13 @@
       <family val="0"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="AppleGothic"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <b val="true"/>
       <sz val="12"/>
       <color rgb="FF444444"/>
@@ -168,15 +175,8 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="AppleGothic"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -185,18 +185,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFEEEEEE"/>
-        <bgColor rgb="FFFFFFFF"/>
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFEEEEEE"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
+        <fgColor rgb="FFEEEEEE"/>
+        <bgColor rgb="FFE7E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF2CC"/>
         <bgColor rgb="FFEEEEEE"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -206,24 +212,17 @@
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left style="thin">
-        <color rgb="FFC6C6C6"/>
+        <color rgb="FFE7E6E6"/>
       </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
+      <right style="thin">
+        <color rgb="FFE7E6E6"/>
       </right>
       <top style="thin">
-        <color rgb="FFC6C6C6"/>
+        <color rgb="FFE7E6E6"/>
       </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
+      <bottom style="thin">
+        <color rgb="FFE7E6E6"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -252,12 +251,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -269,15 +268,19 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -306,16 +309,16 @@
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC6C6C6"/>
+      <rgbColor rgb="FFC0C0C0"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFF2CC"/>
       <rgbColor rgb="FFEEEEEE"/>
-      <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCCC"/>
+      <rgbColor rgb="FFCCCCFF"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -325,7 +328,7 @@
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFE7E6E6"/>
       <rgbColor rgb="FFCCFFCC"/>
       <rgbColor rgb="FFFFFF99"/>
       <rgbColor rgb="FF99CCFF"/>
@@ -353,128 +356,263 @@
 </styleSheet>
 </file>
 
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="쿼리2" displayName="쿼리2" ref="A1:M4" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
+  <autoFilter ref="A1:M4"/>
+  <tableColumns count="13">
+    <tableColumn id="1" name="mon_mt"/>
+    <tableColumn id="2" name="건물명"/>
+    <tableColumn id="3" name="건물코드"/>
+    <tableColumn id="4" name="surtax_yn"/>
+    <tableColumn id="5" name="추가금"/>
+    <tableColumn id="6" name="입금날짜"/>
+    <tableColumn id="7" name="입금자명"/>
+    <tableColumn id="8" name="고객명"/>
+    <tableColumn id="9" name="관리비"/>
+    <tableColumn id="10" name="부가세"/>
+    <tableColumn id="11" name="미수금"/>
+    <tableColumn id="12" name="이월금"/>
+    <tableColumn id="13" name="memo"/>
+  </tableColumns>
+</table>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
+      <selection pane="bottomLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.43359375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="6.39453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.05"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="10.05"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="11.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="5" style="1" width="15.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="10.05"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="15.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="20.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1016" style="0" width="8.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="16.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="15.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="12.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="15.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="10.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="12.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="10.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="1" width="9.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="9.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="13" style="1" width="9.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="17.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="15.12"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1002" min="17" style="1" width="6.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1011" min="1003" style="1" width="8.5"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="1012" style="1" width="6.38"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
+      <c r="L1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
-      <c r="A2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3" t="n">
+    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="2" t="str">
+        <f aca="false">VLOOKUP($B2,건물정보!$B:$C,2,0)</f>
+        <v>B0000000001</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2" t="str">
+        <f aca="false">VLOOKUP($B2,건물정보!$B:$M,7,0)</f>
+        <v>감자</v>
+      </c>
+      <c r="K2" s="2" t="n">
+        <f aca="false">VLOOKUP($B2,건물정보!$B:$M,8,0)</f>
+        <v>1000000</v>
+      </c>
+      <c r="L2" s="2" t="n">
+        <f aca="false">VLOOKUP($B2,건물정보!$B:$M,9,0)</f>
         <v>0</v>
       </c>
-      <c r="G2" s="3" t="n">
-        <v>600000</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="4" t="s">
+      <c r="M2" s="2" t="n">
+        <f aca="false">VLOOKUP($B2,건물정보!$B:$M,10,0)</f>
+        <v>1000000</v>
+      </c>
+      <c r="N2" s="2" t="n">
+        <f aca="false">VLOOKUP($B2,건물정보!$B:$M,11,0)</f>
+        <v>1000000</v>
+      </c>
+      <c r="O2" s="1" t="str">
+        <f aca="false">IF(J2=H2,"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="P2" s="1" t="str">
+        <f aca="false">IF(N2=F2,"Y","N")</f>
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" s="3"/>
+      <c r="B3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="2" t="str">
+        <f aca="false">VLOOKUP($B3,건물정보!$B:$C,2,0)</f>
+        <v>B0000000002</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <v>1200000</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2" t="str">
+        <f aca="false">VLOOKUP($B3,건물정보!$B:$M,7,0)</f>
+        <v>고구마</v>
+      </c>
+      <c r="K3" s="2" t="n">
+        <f aca="false">VLOOKUP($B3,건물정보!$B:$M,8,0)</f>
+        <v>2000000</v>
+      </c>
+      <c r="L3" s="2" t="n">
+        <f aca="false">VLOOKUP($B3,건물정보!$B:$M,9,0)</f>
+        <v>200000</v>
+      </c>
+      <c r="M3" s="2" t="n">
+        <f aca="false">VLOOKUP($B3,건물정보!$B:$M,10,0)</f>
+        <v>2200000</v>
+      </c>
+      <c r="N3" s="2" t="n">
+        <f aca="false">VLOOKUP($B3,건물정보!$B:$M,11,0)</f>
+        <v>2200000</v>
+      </c>
+      <c r="O3" s="1" t="str">
+        <f aca="false">IF(J3=H3,"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="P3" s="1" t="str">
+        <f aca="false">IF(N3=F3,"Y","N")</f>
+        <v>N</v>
+      </c>
     </row>
-    <row r="3" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
-      <c r="A3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="3" t="s">
+    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="2" t="str">
+        <f aca="false">VLOOKUP($B4,건물정보!$B:$C,2,0)</f>
+        <v>B0000000NaN</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3" t="n">
+      <c r="H4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2" t="str">
+        <f aca="false">VLOOKUP($B4,건물정보!$B:$M,7,0)</f>
+        <v>이명진</v>
+      </c>
+      <c r="K4" s="2" t="n">
+        <f aca="false">VLOOKUP($B4,건물정보!$B:$M,8,0)</f>
+        <v>100000</v>
+      </c>
+      <c r="L4" s="2" t="n">
+        <f aca="false">VLOOKUP($B4,건물정보!$B:$M,9,0)</f>
         <v>0</v>
       </c>
-      <c r="G3" s="3" t="n">
-        <v>290000</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K3" s="3"/>
+      <c r="M4" s="2" t="n">
+        <f aca="false">VLOOKUP($B4,건물정보!$B:$M,10,0)</f>
+        <v>100000</v>
+      </c>
+      <c r="N4" s="2" t="n">
+        <f aca="false">VLOOKUP($B4,건물정보!$B:$M,11,0)</f>
+        <v>100000</v>
+      </c>
+      <c r="O4" s="1" t="str">
+        <f aca="false">IF(J4=H4,"Y","N")</f>
+        <v>N</v>
+      </c>
+      <c r="P4" s="1" t="str">
+        <f aca="false">IF(N4=F4,"Y","N")</f>
+        <v>Y</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -492,137 +630,165 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.51953125" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="9.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="8" style="0" width="9.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="7.37"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="6" t="s">
+    <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>100000</v>
+      </c>
+      <c r="J2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" s="0" t="n">
+        <v>100000</v>
+      </c>
+      <c r="L2" s="0" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <v>200000</v>
+      </c>
+      <c r="K3" s="0" t="n">
+        <v>2200000</v>
+      </c>
+      <c r="L3" s="0" t="n">
+        <v>2200000</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="0" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="n">
-        <v>11</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="n">
-        <v>26</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="n">
-        <v>27</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="n">
-        <v>28</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6" t="n">
-        <v>30</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6" t="n">
-        <v>41</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6" t="n">
-        <v>43</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="6" t="n">
-        <v>44</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="6" t="n">
-        <v>45</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="6" t="n">
-        <v>46</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="6" t="n">
-        <v>47</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="6" t="n">
-        <v>48</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="6" t="n">
-        <v>50</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>32</v>
+      <c r="I4" s="0" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" s="0" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="L4" s="0" t="n">
+        <v>1000000</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,보통"&amp;12&amp;Kffffff&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,보통"&amp;12&amp;Kffffff페이지 &amp;P</oddFooter>
+    <oddHeader/>
+    <oddFooter/>
   </headerFooter>
+  <tableParts>
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<DataMashup xmlns="http://schemas.microsoft.com/DataMashup" sqmid="aa715f81-889f-4130-b7a7-1d9e9a45d218">AAAAAC4FAABQSwMEFAACAAgA74YMU7Ae1PKlAAAA9QAAABIAHABDb25maWcvUGFja2FnZS54bWwgohgAKKAUAAAAAAAAAAAAAAAAAAAAAAAAAAAAe797v419RW6OQllqUXFmfp6tkqGegZJCal5yfkpmXrqtUmlJmq6Fkr2dTUBicnZieqoCUHFesVVFcaatUkZJSYGVvn55ebleubFeflG6vpGBgaF+hK9PcHJGam6ibmZecUliXnKqElxXCmFdSnY2YRDH2BnpWZrqmZkAnWSjDxOz8c3MQ8gbAeVAskiCNs6lOSWlRal22fm63kE2+jCujT7UC3YAUEsDBBQAAgAIAO+GDFMPyumrpAAAAOkAAAATABwAW0NvbnRlbnRfVHlwZXNdLnhtbCCiGAAooBQAAAAAAAAAAAAAAAAAAAAAAAAAAABtjksOwjAMRK8SeZ+6sEAINWUB3IALRMH9iOajxkXhbCw4ElcgbXeIpWfmeebzelfHZAfxoDH23inYFCUIcsbfetcqmLiRezjW1fUZKIocdVFBxxwOiNF0ZHUsfCCXncaPVnM+xxaDNnfdEm7LcofGOybHkucfUFdnavQ0sLikLK+1GQdxWnNzlQKmxLjI+JewP3kdwtAbzdnEJG2UdiFxGV5/AVBLAwQUAAIACADvhgxTohH/PicCAAAzBwAAEwAcAEZvcm11bGFzL1NlY3Rpb24xLm0gohgAKKAUAAAAAAAAAAAAAAAAAAAAAAAAAAAAzVVLa9tAEL4b/B8G52Cplkwf9BR8y7GhDTmUnMRKWjsKkjZo10l8M8WBHAN1oZAHObVQAk2xCS4k9P9I+yM6eliRY9mkGEr2sHrMzDcz38zscmoJh/mwnT5frVcr1QrfJQG1Qf65i75dv4YWuFRUK4BLnp1Gown+eW+bVnOrS4OeUrO53/rAuOgEdHvr3Zu3H2sa1Dh1ERKSxaymx3zDE2uK21ahsDQwzabp2h3D94BwCH+No+u76MfxEk3LftCU98Po83m5Mu8GghwZPT8RrymCmDO7BsTzmsS2DQuDjzHl7TC86YeTk4UWghkWkqPEljbdZ9wRhi3QX30Hl765qW9s1NUE6/IYgaJPV/L7+dIAMhgWPFjJy9OFFFiuQ30xpWt0Fd5cLNZF0qe5heM+FjP6PVhGVqwY3faRBDmYzEWdKluMuJRbVCk40OClCo0ZUQr4WFBkPJHps7Ipp7k8DujnRJ58RVpA18PRQH65x/dGHmYjr5qesofdmZuUJJv7w65kBzTIfTX+f2ryYizPhuVxxjYe9VihDO2AeXBIszkwEcA0cTbbAvaY44OSzdyLBf32lD13Qey9Lhc4s4ZHfNKhK2CqcS6Ah0xhgltJftnXk7FLks0gNEhPGA3ymj4zFg53aUBBeRwwqFCaDTlSUgV1BZ/PIe9/3TsB6+6D2ZtysUr+Kl49c42Hcz/fd2l1UI/gPXhA8dZAzfpOvaZWK45fvPzW/wJQSwECLQAUAAIACADvhgxTsB7U8qUAAAD1AAAAEgAAAAAAAAAAAAAAAAAAAAAAQ29uZmlnL1BhY2thZ2UueG1sUEsBAi0AFAACAAgA74YMUw/K6aukAAAA6QAAABMAAAAAAAAAAAAAAAAA8QAAAFtDb250ZW50X1R5cGVzXS54bWxQSwECLQAUAAIACADvhgxTohH/PicCAAAzBwAAEwAAAAAAAAAAAAAAAADiAQAARm9ybXVsYXMvU2VjdGlvbjEubVBLBQYAAAAAAwADAMIAAABWBAAAAAAQAQAA77u/PD94bWwgdmVyc2lvbj0iMS4wIiBlbmNvZGluZz0idXRmLTgiPz48UGVybWlzc2lvbkxpc3QgeG1sbnM6eHNpPSJodHRwOi8vd3d3LnczLm9yZy8yMDAxL1hNTFNjaGVtYS1pbnN0YW5jZSIgeG1sbnM6eHNkPSJodHRwOi8vd3d3LnczLm9yZy8yMDAxL1hNTFNjaGVtYSI+PENhbkV2YWx1YXRlRnV0dXJlUGFja2FnZXM+ZmFsc2U8L0NhbkV2YWx1YXRlRnV0dXJlUGFja2FnZXM+PEZpcmV3YWxsRW5hYmxlZD50cnVlPC9GaXJld2FsbEVuYWJsZWQ+PC9QZXJtaXNzaW9uTGlzdD6cDgAAAAAAAHoOAADvu788P3htbCB2ZXJzaW9uPSIxLjAiIGVuY29kaW5nPSJ1dGYtOCI/PjxMb2NhbFBhY2thZ2VNZXRhZGF0YUZpbGUgeG1sbnM6eHNpPSJodHRwOi8vd3d3LnczLm9yZy8yMDAxL1hNTFNjaGVtYS1pbnN0YW5jZSIgeG1sbnM6eHNkPSJodHRwOi8vd3d3LnczLm9yZy8yMDAxL1hNTFNjaGVtYSI+PEl0ZW1zPjxJdGVtPjxJdGVtTG9jYXRpb24+PEl0ZW1UeXBlPkFsbEZvcm11bGFzPC9JdGVtVHlwZT48SXRlbVBhdGggLz48L0l0ZW1Mb2NhdGlvbj48U3RhYmxlRW50cmllcz48RW50cnkgVHlwZT0iUmVsYXRpb25zaGlwcyIgVmFsdWU9InNBQUFBQUE9PSIgLz48L1N0YWJsZUVudHJpZXM+PC9JdGVtPjxJdGVtPjxJdGVtTG9jYXRpb24+PEl0ZW1UeXBlPkZvcm11bGE8L0l0ZW1UeXBlPjxJdGVtUGF0aD5TZWN0aW9uMS8lRUMlQkYlQkMlRUIlQTYlQUMyPC9JdGVtUGF0aD48L0l0ZW1Mb2NhdGlvbj48U3RhYmxlRW50cmllcz48RW50cnkgVHlwZT0iSXNQcml2YXRlIiBWYWx1ZT0ibDAiIC8+PEVudHJ5IFR5cGU9IkZpbGxFbmFibGVkIiBWYWx1ZT0ibDEiIC8+PEVudHJ5IFR5cGU9IkZpbGxPYmplY3RUeXBlIiBWYWx1ZT0ic1RhYmxlIiAvPjxFbnRyeSBUeXBlPSJGaWxsVG9EYXRhTW9kZWxFbmFibGVkIiBWYWx1ZT0ibDAiIC8+PEVudHJ5IFR5cGU9IkJ1ZmZlck5leHRSZWZyZXNoIiBWYWx1ZT0ibDEiIC8+PEVudHJ5IFR5cGU9IlJlc3VsdFR5cGUiIFZhbHVlPSJzVGFibGUiIC8+PEVudHJ5IFR5cGU9Ik5hbWVVcGRhdGVkQWZ0ZXJGaWxsIiBWYWx1ZT0ibDAiIC8+PEVudHJ5IFR5cGU9IkZpbGxUYXJnZXQiIFZhbHVlPSJz7L+866asMiIgLz48RW50cnkgVHlwZT0iRmlsbGVkQ29tcGxldGVSZXN1bHRUb1dvcmtzaGVldCIgVmFsdWU9ImwxIiAvPjxFbnRyeSBUeXBlPSJBZGRlZFRvRGF0YU1vZGVsIiBWYWx1ZT0ibDAiIC8+PEVudHJ5IFR5cGU9IkZpbGxDb3VudCIgVmFsdWU9ImwzIiAvPjxFbnRyeSBUeXBlPSJGaWxsRXJyb3JDb2RlIiBWYWx1ZT0ic1Vua25vd24iIC8+PEVudHJ5IFR5cGU9IkZpbGxFcnJvckNvdW50IiBWYWx1ZT0ibDAiIC8+PEVudHJ5IFR5cGU9IkZpbGxMYXN0VXBkYXRlZCIgVmFsdWU9ImQyMDIxLTA4LTEyVDA3OjM1OjQxLjExODI3ODdaIiAvPjxFbnRyeSBUeXBlPSJGaWxsQ29sdW1uVHlwZXMiIFZhbHVlPSJzQmdZR0JnUUdCZ1lFQkFRRUJnPT0iIC8+PEVudHJ5IFR5cGU9IkZpbGxDb2x1bW5OYW1lcyIgVmFsdWU9InNbJnF1b3Q7bW9uX210JnF1b3Q7LCZxdW90O+qxtOusvOuqhSZxdW90OywmcXVvdDvqsbTrrLzsvZTrk5wmcXVvdDssJnF1b3Q7c3VydGF4X3luJnF1b3Q7LCZxdW90O+y2lOqwgOq4iCZxdW90OywmcXVvdDvsnoXquIjrgqDsp5wmcXVvdDssJnF1b3Q77J6F6riI7J6Q66qFJnF1b3Q7LCZxdW90O+qzoOqwneuqhSZxdW90OywmcXVvdDvqtIDrpqzruYQmcXVvdDssJnF1b3Q767aA6rCA7IS4JnF1b3Q7LCZxdW90O+uvuOyImOq4iCZxdW90OywmcXVvdDvsnbTsm5TquIgmcXVvdDssJnF1b3Q7bWVtbyZxdW90O10iIC8+PEVudHJ5IFR5cGU9IkZpbGxTdGF0dXMiIFZhbHVlPSJzQ29tcGxldGUiIC8+PEVudHJ5IFR5cGU9IlJlbGF0aW9uc2hpcEluZm9Db250YWluZXIiIFZhbHVlPSJzeyZxdW90O2NvbHVtbkNvdW50JnF1b3Q7OjEzLCZxdW90O2tleUNvbHVtbk5hbWVzJnF1b3Q7OltdLCZxdW90O3F1ZXJ5UmVsYXRpb25zaGlwcyZxdW90OzpbXSwmcXVvdDtjb2x1bW5JZGVudGl0aWVzJnF1b3Q7OlsmcXVvdDtTZWN0aW9uMS/sv7zrpqwyL0F1dG9SZW1vdmVkQ29sdW1uczEue21vbl9tdCwwfSZxdW90OywmcXVvdDtTZWN0aW9uMS/sv7zrpqwyL0F1dG9SZW1vdmVkQ29sdW1uczEue+qxtOusvOuqhSwxfSZxdW90OywmcXVvdDtTZWN0aW9uMS/sv7zrpqwyL0F1dG9SZW1vdmVkQ29sdW1uczEue+qxtOusvOy9lOuTnCwyfSZxdW90OywmcXVvdDtTZWN0aW9uMS/sv7zrpqwyL0F1dG9SZW1vdmVkQ29sdW1uczEue3N1cnRheF95biwzfSZxdW90OywmcXVvdDtTZWN0aW9uMS/sv7zrpqwyL0F1dG9SZW1vdmVkQ29sdW1uczEue+y2lOqwgOq4iCw0fSZxdW90OywmcXVvdDtTZWN0aW9uMS/sv7zrpqwyL0F1dG9SZW1vdmVkQ29sdW1uczEue+yeheq4iOuCoOynnCw1fSZxdW90OywmcXVvdDtTZWN0aW9uMS/sv7zrpqwyL0F1dG9SZW1vdmVkQ29sdW1uczEue+yeheq4iOyekOuqhSw2fSZxdW90OywmcXVvdDtTZWN0aW9uMS/sv7zrpqwyL0F1dG9SZW1vdmVkQ29sdW1uczEue+qzoOqwneuqhSw3fSZxdW90OywmcXVvdDtTZWN0aW9uMS/sv7zrpqwyL0F1dG9SZW1vdmVkQ29sdW1uczEue+q0gOumrOu5hCw4fSZxdW90OywmcXVvdDtTZWN0aW9uMS/sv7zrpqwyL0F1dG9SZW1vdmVkQ29sdW1uczEue+u2gOqwgOyEuCw5fSZxdW90OywmcXVvdDtTZWN0aW9uMS/sv7zrpqwyL0F1dG9SZW1vdmVkQ29sdW1uczEue+uvuOyImOq4iCwxMH0mcXVvdDssJnF1b3Q7U2VjdGlvbjEv7L+866asMi9BdXRvUmVtb3ZlZENvbHVtbnMxLnvsnbTsm5TquIgsMTF9JnF1b3Q7LCZxdW90O1NlY3Rpb24xL+y/vOumrDIvQXV0b1JlbW92ZWRDb2x1bW5zMS57bWVtbywxMn0mcXVvdDtdLCZxdW90O0NvbHVtbkNvdW50JnF1b3Q7OjEzLCZxdW90O0tleUNvbHVtbk5hbWVzJnF1b3Q7OltdLCZxdW90O0NvbHVtbklkZW50aXRpZXMmcXVvdDs6WyZxdW90O1NlY3Rpb24xL+y/vOumrDIvQXV0b1JlbW92ZWRDb2x1bW5zMS57bW9uX210LDB9JnF1b3Q7LCZxdW90O1NlY3Rpb24xL+y/vOumrDIvQXV0b1JlbW92ZWRDb2x1bW5zMS576rG066y866qFLDF9JnF1b3Q7LCZxdW90O1NlY3Rpb24xL+y/vOumrDIvQXV0b1JlbW92ZWRDb2x1bW5zMS576rG066y87L2U65OcLDJ9JnF1b3Q7LCZxdW90O1NlY3Rpb24xL+y/vOumrDIvQXV0b1JlbW92ZWRDb2x1bW5zMS57c3VydGF4X3luLDN9JnF1b3Q7LCZxdW90O1NlY3Rpb24xL+y/vOumrDIvQXV0b1JlbW92ZWRDb2x1bW5zMS577LaU6rCA6riILDR9JnF1b3Q7LCZxdW90O1NlY3Rpb24xL+y/vOumrDIvQXV0b1JlbW92ZWRDb2x1bW5zMS577J6F6riI64Kg7KecLDV9JnF1b3Q7LCZxdW90O1NlY3Rpb24xL+y/vOumrDIvQXV0b1JlbW92ZWRDb2x1bW5zMS577J6F6riI7J6Q66qFLDZ9JnF1b3Q7LCZxdW90O1NlY3Rpb24xL+y/vOumrDIvQXV0b1JlbW92ZWRDb2x1bW5zMS576rOg6rCd66qFLDd9JnF1b3Q7LCZxdW90O1NlY3Rpb24xL+y/vOumrDIvQXV0b1JlbW92ZWRDb2x1bW5zMS576rSA66as67mELDh9JnF1b3Q7LCZxdW90O1NlY3Rpb24xL+y/vOumrDIvQXV0b1JlbW92ZWRDb2x1bW5zMS5767aA6rCA7IS4LDl9JnF1b3Q7LCZxdW90O1NlY3Rpb24xL+y/vOumrDIvQXV0b1JlbW92ZWRDb2x1bW5zMS5766+47IiY6riILDEwfSZxdW90OywmcXVvdDtTZWN0aW9uMS/sv7zrpqwyL0F1dG9SZW1vdmVkQ29sdW1uczEue+ydtOyblOq4iCwxMX0mcXVvdDssJnF1b3Q7U2VjdGlvbjEv7L+866asMi9BdXRvUmVtb3ZlZENvbHVtbnMxLnttZW1vLDEyfSZxdW90O10sJnF1b3Q7UmVsYXRpb25zaGlwSW5mbyZxdW90OzpbXX0iIC8+PC9TdGFibGVFbnRyaWVzPjwvSXRlbT48SXRlbT48SXRlbUxvY2F0aW9uPjxJdGVtVHlwZT5Gb3JtdWxhPC9JdGVtVHlwZT48SXRlbVBhdGg+U2VjdGlvbjEvJUVDJUJGJUJDJUVCJUE2JUFDMi8lRUMlOUIlOTAlRUIlQjMlQjg8L0l0ZW1QYXRoPjwvSXRlbUxvY2F0aW9uPjxTdGFibGVFbnRyaWVzIC8+PC9JdGVtPjwvSXRlbXM+PC9Mb2NhbFBhY2thZ2VNZXRhZGF0YUZpbGU+FgAAAFBLBQYAAAAAAAAAAAAAAAAAAAAAAAAmAQAAAQAAANCMnd8BFdERjHoAwE/Cl+sBAAAA6DEyw74JwU6dWgQIegQmNQAAAAACAAAAAAAQZgAAAAEAACAAAAD3DVQuEKxEFWD29AkvCsH+j5ptfAk+SNjFuiD8u1mSrgAAAAAOgAAAAAIAACAAAAAv8aJH6FYxQBoPKuxPdRdzGyIBci8KgF8chLsA+wsselAAAADkdaEycMNxI6OUZhX4dIGrQxS6nwDyyn2jXP+DzmaniKWKnKbVeR/6R/GGGwsGcIG2u2KetFok8CckcV2eyWwAhS0dBp0xguDG4IoilrziK0AAAABFQ/N4b/w1oMsxAiI39xXAiROOEQRe6qbLUk9fwZBUJj1FnUOXpceqgNLJxjs0HlrvExzinFyPDI2lReOTf0hr</DataMashup>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{68E8EE21-7CC3-4E94-ABD1-8EF961BD671A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/DataMashup"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>